--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data Science\Desktop\Recruitment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Personal\Interview\Renata task\react task\renata-intern-task\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C4213B-7299-4204-839D-4075715474EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 Layer Dropdown" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="105">
   <si>
     <t>Language</t>
   </si>
@@ -326,13 +327,22 @@
   </si>
   <si>
     <t>https://www.w3schools.com/sql/func_sqlserver_user_name.asp</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/en-us/office/concat-function-9b1a9a3f-94ff-41af-9736-694cbd6b4ca2</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/create-a-two-dimensional-array-in-javascript/</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/copy-int-array-kotlin/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -365,6 +375,13 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,18 +400,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,14 +627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -650,8 +670,8 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
+      <c r="D2" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -664,8 +684,8 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
+      <c r="D3" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -678,8 +698,8 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
+      <c r="D4" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1818,14 +1838,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1"/>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{E6440A58-5CA3-4EA7-847B-D9051D46073B}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{DB81621F-2400-4A70-894C-E1F4456C8235}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{E7431A3A-2672-431F-B0F9-0513B6920E82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2068,7 +2091,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
